--- a/nriss-patch-1/ig/all-profiles.xlsx
+++ b/nriss-patch-1/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-12T17:11:12+00:00</t>
+    <t>2024-11-12T17:25:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
